--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>Component</t>
   </si>
@@ -76,6 +76,12 @@
   </si>
   <si>
     <t xml:space="preserve">http://www.digikey.com/product-detail/en/microchip-technology/MCP3208-BI-SL/MCP3208-BI-SL-ND/319444 </t>
+  </si>
+  <si>
+    <t>Resistor 10K through hole</t>
+  </si>
+  <si>
+    <t>Diode through hole</t>
   </si>
 </sst>
 </file>
@@ -445,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -526,7 +532,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>15</v>
@@ -546,7 +552,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
         <v>16</v>
@@ -562,6 +568,28 @@
       </c>
       <c r="G5" s="1" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -574,8 +602,10 @@
     <hyperlink ref="G4" r:id="rId6"/>
     <hyperlink ref="D5" r:id="rId7"/>
     <hyperlink ref="G5" r:id="rId8"/>
+    <hyperlink ref="D6" r:id="rId9"/>
+    <hyperlink ref="D7" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId9"/>
+  <pageSetup orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>
--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12120" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,14 +19,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
   <si>
     <t>Component</t>
   </si>
   <si>
-    <t>Quantity</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
@@ -82,6 +79,51 @@
   </si>
   <si>
     <t>Diode through hole</t>
+  </si>
+  <si>
+    <t>Barrel Jack connector</t>
+  </si>
+  <si>
+    <t>Sparkfun</t>
+  </si>
+  <si>
+    <t>ARF1688-ND</t>
+  </si>
+  <si>
+    <t>Surface mount BNC connector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.digikey.com/product-detail/en/031-5329-52RFX/ARF1688-ND/2041814?WT.z_slp_buy=amphenol_bnc-connectors </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.sparkfun.com/products/10811 </t>
+  </si>
+  <si>
+    <t>Boards</t>
+  </si>
+  <si>
+    <t>To Order</t>
+  </si>
+  <si>
+    <t>Per Board</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.digikey.com/product-detail/en/stackpole-electronics-inc/CF14JT1K00/CF14JT1K00CT-ND/1830350 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.digikey.com/product-detail/en/comchip-technology/1N4001-G/641-1310-1-ND/1979675 </t>
+  </si>
+  <si>
+    <t>641-1310-1-ND</t>
+  </si>
+  <si>
+    <t>CF14JT1K00CT-ND</t>
+  </si>
+  <si>
+    <t>401-2001-ND</t>
+  </si>
+  <si>
+    <t>JS202011CQN</t>
   </si>
 </sst>
 </file>
@@ -451,161 +493,450 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="56.375" customWidth="1"/>
-    <col min="3" max="3" width="17.375" customWidth="1"/>
-    <col min="4" max="4" width="23.25" customWidth="1"/>
-    <col min="5" max="5" width="12.375" customWidth="1"/>
-    <col min="6" max="6" width="30.25" customWidth="1"/>
-    <col min="7" max="7" width="84.5" customWidth="1"/>
+    <col min="4" max="4" width="56.375" customWidth="1"/>
+    <col min="5" max="5" width="17.375" customWidth="1"/>
+    <col min="6" max="6" width="23.25" customWidth="1"/>
+    <col min="7" max="7" width="12.375" customWidth="1"/>
+    <col min="8" max="8" width="30.25" customWidth="1"/>
+    <col min="9" max="9" width="84.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B2">
+        <f>A$2*C2</f>
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2">
+        <v>2851</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2">
+        <v>14.95</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <f t="shared" ref="B3:B38" si="0">A$2*C3</f>
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>1467</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3">
+        <v>9.99</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6">
+        <v>0.1</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7">
+        <v>0.11</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>10811</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8">
+        <v>0.95</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C9">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2">
-        <v>2851</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2">
-        <v>14.95</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3">
-        <v>1467</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3">
-        <v>9.99</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="D9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5">
-        <v>4.3499999999999996</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>13</v>
+      <c r="I9" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1"/>
-    <hyperlink ref="G3" r:id="rId2"/>
-    <hyperlink ref="D2" r:id="rId3"/>
-    <hyperlink ref="D3" r:id="rId4"/>
-    <hyperlink ref="D4" r:id="rId5"/>
-    <hyperlink ref="G4" r:id="rId6"/>
-    <hyperlink ref="D5" r:id="rId7"/>
-    <hyperlink ref="G5" r:id="rId8"/>
-    <hyperlink ref="D6" r:id="rId9"/>
-    <hyperlink ref="D7" r:id="rId10"/>
+    <hyperlink ref="I2" r:id="rId1"/>
+    <hyperlink ref="I3" r:id="rId2"/>
+    <hyperlink ref="F2" r:id="rId3"/>
+    <hyperlink ref="F3" r:id="rId4"/>
+    <hyperlink ref="F4" r:id="rId5"/>
+    <hyperlink ref="I4" r:id="rId6"/>
+    <hyperlink ref="F5" r:id="rId7"/>
+    <hyperlink ref="I5" r:id="rId8"/>
+    <hyperlink ref="F6" r:id="rId9"/>
+    <hyperlink ref="F7" r:id="rId10"/>
+    <hyperlink ref="F8" r:id="rId11"/>
+    <hyperlink ref="I9" r:id="rId12"/>
+    <hyperlink ref="I8" r:id="rId13"/>
+    <hyperlink ref="F9" r:id="rId14"/>
+    <hyperlink ref="I6" r:id="rId15"/>
+    <hyperlink ref="I7" r:id="rId16"/>
+    <hyperlink ref="F10" r:id="rId17"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId11"/>
+  <pageSetup orientation="portrait" r:id="rId18"/>
 </worksheet>
 </file>